--- a/doc/problem/问题记录.xlsx
+++ b/doc/problem/问题记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,14 @@
   </si>
   <si>
     <t>待处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算测算合并，拆分测算需求确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算消耗比例情况显示（数量，金额）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -98,12 +106,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -384,40 +405,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="1" sqref="B2 D12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="8">
         <v>43116</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>43117</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>43117</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/problem/问题记录.xlsx
+++ b/doc/problem/问题记录.xlsx
@@ -1,70 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理人</t>
+  </si>
+  <si>
+    <t>发现人</t>
   </si>
   <si>
     <t>项目管理模块，不停刷新后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+  </si>
+  <si>
+    <t>预算消耗比例情况显示（数量，金额）</t>
   </si>
   <si>
     <t>待处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预算测算合并，拆分测算需求确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算消耗比例情况显示（数量，金额）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目文件上传时的文件预览中文乱码</t>
+  </si>
+  <si>
+    <t>王志浩</t>
+  </si>
+  <si>
+    <t>用料申请流程审核时，未全选供应商，提交报错</t>
+  </si>
+  <si>
+    <t>用料申请模块，编辑选择物料时，物料下拉框回填问题</t>
+  </si>
+  <si>
+    <t>用料申请被驳回，被打回重新编辑供应商还是打回给申请的人</t>
+  </si>
+  <si>
+    <t>待处理（需求）</t>
+  </si>
+  <si>
+    <t>物料供应商编辑弹框添加删除供应商按钮（体验）</t>
+  </si>
+  <si>
+    <t>考核核比时间框问题</t>
+  </si>
+  <si>
+    <t>项目管理模块，编辑上传文件不能预览（中标文件、中标通知文件）</t>
+  </si>
+  <si>
+    <t>项目管理模块，上传文件后，页面预览框不刷新问题</t>
+  </si>
+  <si>
+    <t>物料新增，规格特殊符号添加（用户体验）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -73,20 +102,362 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -94,49 +465,356 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -185,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -220,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -394,80 +1072,212 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="41" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.6666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.8833333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="7">
         <v>43116</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" ht="20.4" customHeight="1" spans="1:3">
+      <c r="A3" s="10">
         <v>43117</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10">
+        <v>43117</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10">
+        <v>43121</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10">
+        <v>43121</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="13">
+        <v>43121</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
+      <c r="E7" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>43117</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10">
+        <v>43121</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10">
+        <v>43121</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10">
+        <v>43121</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10">
+        <v>43121</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10">
+        <v>43121</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10">
+        <v>43121</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/problem/问题记录.xlsx
+++ b/doc/problem/问题记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>时间</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>物料新增，规格特殊符号添加（用户体验）</t>
+  </si>
+  <si>
+    <t>项目新增选择负责人去除默认选择（用户体验）</t>
   </si>
 </sst>
 </file>
@@ -84,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,51 +106,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,9 +132,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,65 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -272,6 +268,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,133 +316,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,17 +486,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,31 +537,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,148 +562,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -756,8 +752,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1078,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1223,7 +1219,7 @@
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -1233,45 +1229,62 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10">
+    <row r="11" s="3" customFormat="1" spans="1:5">
+      <c r="A11" s="13">
         <v>43121</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10">
+    <row r="12" s="3" customFormat="1" spans="1:5">
+      <c r="A12" s="13">
         <v>43121</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10">
+    <row r="13" s="3" customFormat="1" spans="1:5">
+      <c r="A13" s="13">
         <v>43121</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10">
+        <v>43122</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>11</v>
       </c>
     </row>
